--- a/data/trans_dic/P3A_R2-Clase-trans_dic.xlsx
+++ b/data/trans_dic/P3A_R2-Clase-trans_dic.xlsx
@@ -708,40 +708,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.08904453765637314</v>
+        <v>0.09172379711785066</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.06114850023216996</v>
+        <v>0.06323934569741864</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.03302044391737192</v>
+        <v>0.03331027925344811</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.05193668211524163</v>
+        <v>0.05319203189212666</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.0696145308421434</v>
+        <v>0.07124557314607206</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.04669502739951182</v>
+        <v>0.04835150465689953</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.03730166361816756</v>
+        <v>0.0390506595634466</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.05258590416989291</v>
+        <v>0.0547463181081617</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.09168544692679788</v>
+        <v>0.09208136895888162</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.06259767605500946</v>
+        <v>0.06298630981621214</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.04048610824890308</v>
+        <v>0.04080780949967093</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.05893331511688241</v>
+        <v>0.05882241856063893</v>
       </c>
     </row>
     <row r="6">
@@ -752,40 +752,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.1528693840308653</v>
+        <v>0.1487307884849034</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.1207156099453715</v>
+        <v>0.1178153008404883</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.08156328331040914</v>
+        <v>0.08545634283072445</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.09160888247120973</v>
+        <v>0.09213159758555635</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.1396329679159394</v>
+        <v>0.1391020589960857</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.114566799709922</v>
+        <v>0.1147620681546855</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.09762484375037168</v>
+        <v>0.09355856030495878</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.09499125712380969</v>
+        <v>0.09448709652423637</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.1368092544021731</v>
+        <v>0.1358201254482984</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.104086613520553</v>
+        <v>0.1053563407084931</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.07723031539502333</v>
+        <v>0.07688543371060313</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.08924474669240347</v>
+        <v>0.08756904150015661</v>
       </c>
     </row>
     <row r="7">
@@ -809,7 +809,7 @@
         <v>0.02529179366564635</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>0.04011508473269524</v>
+        <v>0.04011508473269523</v>
       </c>
       <c r="G7" s="5" t="n">
         <v>0.03823783757567705</v>
@@ -844,40 +844,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.03234632628894211</v>
+        <v>0.03044117383732999</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.02662198164604999</v>
+        <v>0.02733989860321831</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.01242176444768704</v>
+        <v>0.01206302612775684</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.02645970856541878</v>
+        <v>0.02577332061442152</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.02203825934466386</v>
+        <v>0.02058646596963227</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.02740249308653634</v>
+        <v>0.03032315422450992</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.008907211051502863</v>
+        <v>0.008539713089609472</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.03430077361879579</v>
+        <v>0.03530231561730857</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.03230208120162285</v>
+        <v>0.03054645470432691</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.03465291571466646</v>
+        <v>0.03365284508203978</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.01460777792838087</v>
+        <v>0.01449305387543198</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.03334435358864825</v>
+        <v>0.03430711092246982</v>
       </c>
     </row>
     <row r="9">
@@ -888,40 +888,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.08341733151369429</v>
+        <v>0.08324747082356558</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.07332679695180241</v>
+        <v>0.07551864287411442</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.04868700129263398</v>
+        <v>0.04657752142221728</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.05868271499870412</v>
+        <v>0.06018377363776202</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.06178265811600432</v>
+        <v>0.06110972098875066</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.08415095227236752</v>
+        <v>0.08702643629299667</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.04662539762742653</v>
+        <v>0.046702416376065</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.06723465596323144</v>
+        <v>0.06756626429144375</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.06414243750095842</v>
+        <v>0.06470404374835932</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.07012788348396296</v>
+        <v>0.06862949204378478</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.03813213797933583</v>
+        <v>0.0400113212715939</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.05717425722430947</v>
+        <v>0.05772140592485873</v>
       </c>
     </row>
     <row r="10">
@@ -945,7 +945,7 @@
         <v>0.01682860674430614</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>0.03988196196990795</v>
+        <v>0.03988196196990794</v>
       </c>
       <c r="G10" s="5" t="n">
         <v>0.02535407686153066</v>
@@ -957,7 +957,7 @@
         <v>0.02159661134372</v>
       </c>
       <c r="J10" s="5" t="n">
-        <v>0.07568289622853694</v>
+        <v>0.07568289622853691</v>
       </c>
       <c r="K10" s="5" t="n">
         <v>0.02528189150772365</v>
@@ -969,7 +969,7 @@
         <v>0.01798286894030073</v>
       </c>
       <c r="N10" s="5" t="n">
-        <v>0.05004416475777402</v>
+        <v>0.05004416475777403</v>
       </c>
     </row>
     <row r="11">
@@ -980,40 +980,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.01370753160656919</v>
+        <v>0.01375577225118862</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.01460256191963533</v>
+        <v>0.0141952069084571</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.00784430875270377</v>
+        <v>0.008675079611984984</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.02520889132596352</v>
+        <v>0.02607590916378587</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.006707313637778739</v>
+        <v>0.006608905806769988</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.02140683463426959</v>
+        <v>0.02092274534884344</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.00590352735982478</v>
+        <v>0.006073994436094708</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.04904140841307521</v>
+        <v>0.05033580729940312</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.01494817830955584</v>
+        <v>0.01498096325764693</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.01942842642920423</v>
+        <v>0.01992084754896731</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.008685940465058566</v>
+        <v>0.01051715260561269</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.03614663028834531</v>
+        <v>0.035509354190161</v>
       </c>
     </row>
     <row r="12">
@@ -1024,40 +1024,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.04352986179316121</v>
+        <v>0.04289834094473535</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.03912004976769213</v>
+        <v>0.03782250455189058</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.03056720202714463</v>
+        <v>0.03239699514817101</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.05906089677092895</v>
+        <v>0.06044356964751024</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.06602550178928621</v>
+        <v>0.06308182777475894</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.07558299444993943</v>
+        <v>0.07653473351089815</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.06338673434064779</v>
+        <v>0.0622350813105683</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.1133303938992214</v>
+        <v>0.1186125531655833</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.04222669518448174</v>
+        <v>0.0381451342620013</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.04273696521556482</v>
+        <v>0.04209237967330142</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.03054287492492417</v>
+        <v>0.02977776609028595</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.06749412585239134</v>
+        <v>0.06668148265927952</v>
       </c>
     </row>
     <row r="13">
@@ -1105,7 +1105,7 @@
         <v>0.01799242727600751</v>
       </c>
       <c r="N13" s="5" t="n">
-        <v>0.04070680016979409</v>
+        <v>0.0407068001697941</v>
       </c>
     </row>
     <row r="14">
@@ -1116,40 +1116,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.0127622089427286</v>
+        <v>0.01337291664650652</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.01644668604555609</v>
+        <v>0.01661526741371226</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.01231457407362603</v>
+        <v>0.01159027348385326</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.03506837496064694</v>
+        <v>0.03571665112129856</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.005453975337252005</v>
+        <v>0.005728846553522433</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.00766555955127014</v>
+        <v>0.007254357886040442</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.009510459481874659</v>
+        <v>0.008791264451752417</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.0249816774558674</v>
+        <v>0.02486440605582078</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.01197567075696355</v>
+        <v>0.01202427241285432</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.01482580567909362</v>
+        <v>0.01465081337052171</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.01284590300573271</v>
+        <v>0.01247537211932819</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.03298324258075173</v>
+        <v>0.03359623889070426</v>
       </c>
     </row>
     <row r="15">
@@ -1160,40 +1160,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.02758905318158531</v>
+        <v>0.02876322072795094</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.03733904555147791</v>
+        <v>0.03586322531464503</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.027579161713348</v>
+        <v>0.02702907006675575</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.0624112508090577</v>
+        <v>0.06176933967567259</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.02121740977165335</v>
+        <v>0.02268934073643769</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.03080839605236026</v>
+        <v>0.02923084519695093</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.03172329447576102</v>
+        <v>0.02903330070031145</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.04277929264084275</v>
+        <v>0.04190674559425647</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.02268262674485939</v>
+        <v>0.02299625755666503</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.02894524563986397</v>
+        <v>0.0290248333370568</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.02462627827139077</v>
+        <v>0.02509281580675743</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.04976547806907552</v>
+        <v>0.05059979037740312</v>
       </c>
     </row>
     <row r="16">
@@ -1241,7 +1241,7 @@
         <v>0.0174002858158552</v>
       </c>
       <c r="N16" s="5" t="n">
-        <v>0.04726077485561556</v>
+        <v>0.04726077485561555</v>
       </c>
     </row>
     <row r="17">
@@ -1252,40 +1252,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.004925122854131456</v>
+        <v>0.004838592269502863</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.02793462075553715</v>
+        <v>0.02930085004529798</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.01470776592087942</v>
+        <v>0.01336218000548755</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.02158790423872262</v>
+        <v>0.02238156170521905</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.008556152362364334</v>
+        <v>0.00837631059840872</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.01912663978502165</v>
+        <v>0.02013052908754078</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.005775674891806571</v>
+        <v>0.005762736204662342</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.04506615896135128</v>
+        <v>0.04600799910247794</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.008861049397019205</v>
+        <v>0.00902231232559873</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>0.02637927177789799</v>
+        <v>0.02595019406393812</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>0.01136712721420503</v>
+        <v>0.01133440573887465</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>0.03913115861373497</v>
+        <v>0.03887765359318929</v>
       </c>
     </row>
     <row r="18">
@@ -1296,40 +1296,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.02931476994354055</v>
+        <v>0.02898403058206907</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.06551505373454128</v>
+        <v>0.06565804080010118</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.03857349795485541</v>
+        <v>0.03808253693425261</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.04927502741172084</v>
+        <v>0.05011532937171771</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.03221598385582117</v>
+        <v>0.03334120450261325</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.04452939543055137</v>
+        <v>0.04468389572707029</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.02639612795462007</v>
+        <v>0.02483266332504731</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.06818303284142324</v>
+        <v>0.06951759195064749</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.0261789957475544</v>
+        <v>0.02620965277109572</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>0.04852896565341357</v>
+        <v>0.04679736452579719</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>0.02524961775102545</v>
+        <v>0.02509019676446263</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>0.05671409370001446</v>
+        <v>0.05603080654549618</v>
       </c>
     </row>
     <row r="19">
@@ -1365,7 +1365,7 @@
         <v>0.04658928206795962</v>
       </c>
       <c r="J19" s="5" t="n">
-        <v>0.07610023028878228</v>
+        <v>0.07610023028878231</v>
       </c>
       <c r="K19" s="5" t="n">
         <v>0.03409891496063042</v>
@@ -1377,7 +1377,7 @@
         <v>0.04084065201652827</v>
       </c>
       <c r="N19" s="5" t="n">
-        <v>0.06649549497704536</v>
+        <v>0.06649549497704538</v>
       </c>
     </row>
     <row r="20">
@@ -1388,40 +1388,40 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>0.02998512690642765</v>
+        <v>0.02895020843903394</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.01156875675244243</v>
+        <v>0.01124601569937657</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.007152134247089089</v>
+        <v>0.006954647352065975</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.006103886634240008</v>
+        <v>0.004230459780569975</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.02108282214223472</v>
+        <v>0.02124261991346628</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>0.0533624456800503</v>
+        <v>0.05342428694535739</v>
       </c>
       <c r="I20" s="5" t="n">
-        <v>0.03305864277549045</v>
+        <v>0.0344920013205585</v>
       </c>
       <c r="J20" s="5" t="n">
-        <v>0.06286169245936968</v>
+        <v>0.06072859722550868</v>
       </c>
       <c r="K20" s="5" t="n">
-        <v>0.02513517054319052</v>
+        <v>0.02649800886566268</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>0.04718956928251374</v>
+        <v>0.04796056745415628</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>0.02989616711782431</v>
+        <v>0.02943846354720024</v>
       </c>
       <c r="N20" s="5" t="n">
-        <v>0.05429436936959617</v>
+        <v>0.05410147032752297</v>
       </c>
     </row>
     <row r="21">
@@ -1432,40 +1432,40 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.08435813629862325</v>
+        <v>0.07646140600277652</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.05273907717170926</v>
+        <v>0.05260633778747898</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.04358763932767188</v>
+        <v>0.04272414059159663</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>0.1015822094643697</v>
+        <v>0.09126502933421694</v>
       </c>
       <c r="G21" s="5" t="n">
-        <v>0.0412185213090973</v>
+        <v>0.04064121947060108</v>
       </c>
       <c r="H21" s="5" t="n">
-        <v>0.08432417605855601</v>
+        <v>0.0846298053060616</v>
       </c>
       <c r="I21" s="5" t="n">
-        <v>0.06226458861026</v>
+        <v>0.06319545692828284</v>
       </c>
       <c r="J21" s="5" t="n">
-        <v>0.09371242366041883</v>
+        <v>0.09170050106373369</v>
       </c>
       <c r="K21" s="5" t="n">
-        <v>0.04427135659293582</v>
+        <v>0.04415638823673346</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>0.07292732021393411</v>
+        <v>0.07382848999462244</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>0.05428178216710131</v>
+        <v>0.05443954364704349</v>
       </c>
       <c r="N21" s="5" t="n">
-        <v>0.08379660179321685</v>
+        <v>0.08272280770282067</v>
       </c>
     </row>
     <row r="22">
@@ -1501,7 +1501,7 @@
         <v>0.03031660019852384</v>
       </c>
       <c r="J22" s="5" t="n">
-        <v>0.0577555181427964</v>
+        <v>0.05775551814279641</v>
       </c>
       <c r="K22" s="5" t="n">
         <v>0.03593635521374896</v>
@@ -1524,40 +1524,40 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.03436645985237236</v>
+        <v>0.03433851693447954</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.03221354957246554</v>
+        <v>0.03199831934829538</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.0194314380142928</v>
+        <v>0.01949438981556476</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.03882840787513516</v>
+        <v>0.03893920072182908</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.02559064870244472</v>
+        <v>0.02634299902644177</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>0.03859384099434339</v>
+        <v>0.03875210862145731</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>0.02453457949952943</v>
+        <v>0.02454458555282768</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>0.05208340459838974</v>
+        <v>0.05209452441538708</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>0.03117372740944955</v>
+        <v>0.03146655993251369</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>0.03731661229470717</v>
+        <v>0.03708777970331177</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>0.02297682297396168</v>
+        <v>0.02361225345148926</v>
       </c>
       <c r="N23" s="5" t="n">
-        <v>0.04743564300850245</v>
+        <v>0.04750778663297541</v>
       </c>
     </row>
     <row r="24">
@@ -1568,40 +1568,40 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.04809294485144234</v>
+        <v>0.04863236052297584</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.04663685386100736</v>
+        <v>0.04542888102621959</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.03051010858930253</v>
+        <v>0.02986329868352344</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.05326792997481139</v>
+        <v>0.053111252372191</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.03779452070290185</v>
+        <v>0.03859465615007054</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>0.05369847627861239</v>
+        <v>0.05362721824036597</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>0.0368397398422386</v>
+        <v>0.03780735498904246</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>0.06410996773616555</v>
+        <v>0.06464190658923878</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>0.04090641534144403</v>
+        <v>0.04108700870976345</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>0.04704939177507004</v>
+        <v>0.047736934877992</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>0.03175454615079508</v>
+        <v>0.03179624762626933</v>
       </c>
       <c r="N24" s="5" t="n">
-        <v>0.05713213115761349</v>
+        <v>0.05677845960350834</v>
       </c>
     </row>
     <row r="25">
@@ -1874,40 +1874,40 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>42109</v>
+        <v>43376</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>26735</v>
+        <v>27649</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>14137</v>
+        <v>14261</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>28597</v>
+        <v>29288</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>21349</v>
+        <v>21850</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>14683</v>
+        <v>15204</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>12946</v>
+        <v>13553</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>25648</v>
+        <v>26702</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>71476</v>
+        <v>71784</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>47052</v>
+        <v>47345</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>31384</v>
+        <v>31633</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>61194</v>
+        <v>61078</v>
       </c>
     </row>
     <row r="7">
@@ -1918,40 +1918,40 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>72291</v>
+        <v>70334</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>52778</v>
+        <v>51510</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>34919</v>
+        <v>36585</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>50441</v>
+        <v>50729</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>42823</v>
+        <v>42660</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>36026</v>
+        <v>36087</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>33881</v>
+        <v>32470</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>46330</v>
+        <v>46085</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>106653</v>
+        <v>105882</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>78238</v>
+        <v>79193</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>59867</v>
+        <v>59600</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>92667</v>
+        <v>90927</v>
       </c>
     </row>
     <row r="8">
@@ -2054,40 +2054,40 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>11869</v>
+        <v>11170</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>11149</v>
+        <v>11450</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>4686</v>
+        <v>4550</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>12773</v>
+        <v>12442</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>8195</v>
+        <v>7655</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>9262</v>
+        <v>10250</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>3316</v>
+        <v>3179</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>14514</v>
+        <v>14938</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>23865</v>
+        <v>22568</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>26226</v>
+        <v>25469</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>10949</v>
+        <v>10863</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>30206</v>
+        <v>31078</v>
       </c>
     </row>
     <row r="11">
@@ -2098,40 +2098,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>30609</v>
+        <v>30546</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>30709</v>
+        <v>31627</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>18366</v>
+        <v>17570</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>28328</v>
+        <v>29052</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>22975</v>
+        <v>22725</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>28444</v>
+        <v>29416</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>17357</v>
+        <v>17386</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>28450</v>
+        <v>28590</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>47388</v>
+        <v>47803</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>53073</v>
+        <v>51939</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>28580</v>
+        <v>29988</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>51793</v>
+        <v>52288</v>
       </c>
     </row>
     <row r="12">
@@ -2234,40 +2234,40 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>7435</v>
+        <v>7461</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>9191</v>
+        <v>8935</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>4080</v>
+        <v>4512</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>11889</v>
+        <v>12298</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>1125</v>
+        <v>1109</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>5569</v>
+        <v>5443</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>981</v>
+        <v>1009</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>9167</v>
+        <v>9409</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>10616</v>
+        <v>10639</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>17282</v>
+        <v>17720</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>5960</v>
+        <v>7217</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>23804</v>
+        <v>23384</v>
       </c>
     </row>
     <row r="15">
@@ -2278,40 +2278,40 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>23610</v>
+        <v>23268</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>24623</v>
+        <v>23806</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>15898</v>
+        <v>16849</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>27854</v>
+        <v>28506</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>11078</v>
+        <v>10584</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>19661</v>
+        <v>19909</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>10530</v>
+        <v>10339</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>21185</v>
+        <v>22172</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>29988</v>
+        <v>27090</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>38016</v>
+        <v>37443</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>20959</v>
+        <v>20434</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>44448</v>
+        <v>43912</v>
       </c>
     </row>
     <row r="16">
@@ -2414,40 +2414,40 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>15804</v>
+        <v>16560</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>19062</v>
+        <v>19257</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>14103</v>
+        <v>13273</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>39692</v>
+        <v>40426</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>3887</v>
+        <v>4083</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>5862</v>
+        <v>5547</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>7816</v>
+        <v>7225</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>21514</v>
+        <v>21414</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>23366</v>
+        <v>23461</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>28520</v>
+        <v>28183</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>25269</v>
+        <v>24540</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>65737</v>
+        <v>66959</v>
       </c>
     </row>
     <row r="19">
@@ -2458,40 +2458,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>34164</v>
+        <v>35618</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>43276</v>
+        <v>41566</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>31584</v>
+        <v>30954</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>70640</v>
+        <v>69913</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>15123</v>
+        <v>16172</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>23558</v>
+        <v>22352</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>26072</v>
+        <v>23862</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>36842</v>
+        <v>36091</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>44256</v>
+        <v>44868</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>55681</v>
+        <v>55834</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>48442</v>
+        <v>49360</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>99185</v>
+        <v>100848</v>
       </c>
     </row>
     <row r="20">
@@ -2594,40 +2594,40 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>1727</v>
+        <v>1696</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>14234</v>
+        <v>14930</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>9129</v>
+        <v>8294</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>12261</v>
+        <v>12712</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>4866</v>
+        <v>4764</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>14565</v>
+        <v>15330</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>4258</v>
+        <v>4249</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>37443</v>
+        <v>38226</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>8146</v>
+        <v>8294</v>
       </c>
       <c r="L22" s="6" t="n">
-        <v>33530</v>
+        <v>32984</v>
       </c>
       <c r="M22" s="6" t="n">
-        <v>15437</v>
+        <v>15392</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>54737</v>
+        <v>54383</v>
       </c>
     </row>
     <row r="23">
@@ -2638,40 +2638,40 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>10276</v>
+        <v>10160</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>33382</v>
+        <v>33455</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>23943</v>
+        <v>23638</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>27986</v>
+        <v>28464</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>18323</v>
+        <v>18963</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>33910</v>
+        <v>34028</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>19462</v>
+        <v>18309</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>56650</v>
+        <v>57759</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>24067</v>
+        <v>24095</v>
       </c>
       <c r="L23" s="6" t="n">
-        <v>61683</v>
+        <v>59482</v>
       </c>
       <c r="M23" s="6" t="n">
-        <v>34289</v>
+        <v>34072</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>79332</v>
+        <v>78377</v>
       </c>
     </row>
     <row r="24">
@@ -2774,40 +2774,40 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>8942</v>
+        <v>8633</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>3087</v>
+        <v>3001</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>2041</v>
+        <v>1984</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>1448</v>
+        <v>1004</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>26264</v>
+        <v>26463</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>59198</v>
+        <v>59266</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>35770</v>
+        <v>37321</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>53073</v>
+        <v>51272</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>38807</v>
+        <v>40911</v>
       </c>
       <c r="L26" s="6" t="n">
-        <v>64944</v>
+        <v>66005</v>
       </c>
       <c r="M26" s="6" t="n">
-        <v>40878</v>
+        <v>40252</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>58720</v>
+        <v>58511</v>
       </c>
     </row>
     <row r="27">
@@ -2818,40 +2818,40 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>25156</v>
+        <v>22801</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>14075</v>
+        <v>14040</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>12436</v>
+        <v>12190</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>24098</v>
+        <v>21651</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>51347</v>
+        <v>50628</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>93545</v>
+        <v>93884</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>67372</v>
+        <v>68379</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>79120</v>
+        <v>77421</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>68352</v>
+        <v>68174</v>
       </c>
       <c r="L27" s="6" t="n">
-        <v>100365</v>
+        <v>101605</v>
       </c>
       <c r="M27" s="6" t="n">
-        <v>74221</v>
+        <v>74437</v>
       </c>
       <c r="N27" s="6" t="n">
-        <v>90627</v>
+        <v>89465</v>
       </c>
     </row>
     <row r="28">
@@ -2954,40 +2954,40 @@
         </is>
       </c>
       <c r="C30" s="6" t="n">
-        <v>112355</v>
+        <v>112263</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>110198</v>
+        <v>109461</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>65614</v>
+        <v>65826</v>
       </c>
       <c r="F30" s="6" t="n">
-        <v>133647</v>
+        <v>134028</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>86332</v>
+        <v>88870</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>136936</v>
+        <v>137497</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>86524</v>
+        <v>86560</v>
       </c>
       <c r="J30" s="6" t="n">
-        <v>189279</v>
+        <v>189319</v>
       </c>
       <c r="K30" s="6" t="n">
-        <v>207083</v>
+        <v>209029</v>
       </c>
       <c r="L30" s="6" t="n">
-        <v>260059</v>
+        <v>258464</v>
       </c>
       <c r="M30" s="6" t="n">
-        <v>158616</v>
+        <v>163003</v>
       </c>
       <c r="N30" s="6" t="n">
-        <v>335661</v>
+        <v>336172</v>
       </c>
     </row>
     <row r="31">
@@ -2998,40 +2998,40 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>157231</v>
+        <v>158994</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>159538</v>
+        <v>155405</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>103023</v>
+        <v>100839</v>
       </c>
       <c r="F31" s="6" t="n">
-        <v>183348</v>
+        <v>182809</v>
       </c>
       <c r="G31" s="6" t="n">
-        <v>127503</v>
+        <v>130202</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>190529</v>
+        <v>190276</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>129920</v>
+        <v>133333</v>
       </c>
       <c r="J31" s="6" t="n">
-        <v>232985</v>
+        <v>234918</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>271736</v>
+        <v>272936</v>
       </c>
       <c r="L31" s="6" t="n">
-        <v>327886</v>
+        <v>332678</v>
       </c>
       <c r="M31" s="6" t="n">
-        <v>219212</v>
+        <v>219500</v>
       </c>
       <c r="N31" s="6" t="n">
-        <v>404275</v>
+        <v>401772</v>
       </c>
     </row>
     <row r="32">
